--- a/work.xlsx
+++ b/work.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amana\OneDrive\Desktop\Programming\Python\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amana\OneDrive\Desktop\Programming\Projects\air_pollution_prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1075512A-42A3-4AA7-86B8-1694D95BB020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B066EB12-8E82-4507-837E-864DDB09BED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>PM2.5</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Correlation</t>
+  </si>
+  <si>
+    <t>r(NO, NO2) = 66%</t>
+  </si>
+  <si>
+    <t>r(NO2, NOx = 44%)</t>
   </si>
 </sst>
 </file>
@@ -81,7 +87,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,6 +115,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -125,13 +137,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,15 +442,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -480,13 +495,13 @@
       <c r="B2" s="3">
         <v>0.65</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D2" s="4">
         <v>0.18</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>0.03</v>
       </c>
       <c r="F2" s="5">
@@ -506,6 +521,14 @@
       </c>
       <c r="K2" s="2">
         <v>0.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
